--- a/public/assets/AÉREO.xlsx
+++ b/public/assets/AÉREO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
   <si>
     <t>Origin</t>
   </si>
@@ -279,13 +279,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -323,6 +329,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -352,13 +365,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -368,19 +374,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -713,7 +719,7 @@
     <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -851,7 +857,9 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
@@ -885,7 +893,9 @@
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
@@ -919,7 +929,9 @@
       <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
@@ -953,7 +965,9 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>30</v>
       </c>
@@ -987,7 +1001,9 @@
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1021,7 +1037,9 @@
       <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>37</v>
       </c>
@@ -1471,7 +1489,9 @@
       <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="6" t="s">
         <v>84</v>
       </c>

--- a/public/assets/AÉREO.xlsx
+++ b/public/assets/AÉREO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="162">
   <si>
     <t>Origin</t>
   </si>
@@ -55,124 +55,295 @@
     <t>Remark 2</t>
   </si>
   <si>
-    <t>FRA</t>
+    <t>MIA</t>
   </si>
   <si>
     <t>SCL</t>
   </si>
   <si>
-    <t>EUR 5,80</t>
+    <t>USD 2,80</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>USD 200</t>
+  </si>
+  <si>
+    <t>USD 2,70</t>
   </si>
   <si>
     <t>LATAM</t>
   </si>
   <si>
-    <t>20 hours</t>
+    <t>USD 150</t>
   </si>
   <si>
-    <t>Direct</t>
+    <t>USD 2,75</t>
   </si>
   <si>
-    <t>NGL</t>
+    <t>DHL</t>
   </si>
   <si>
-    <t>EUR 5,95</t>
+    <t>VIERNES</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>GBP 2,90</t>
+  </si>
+  <si>
+    <t>GBP 2,65</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>BOG</t>
+  </si>
+  <si>
+    <t>GBP 198</t>
+  </si>
+  <si>
+    <t>GBP 5,95</t>
+  </si>
+  <si>
+    <t>GBP 5,75</t>
+  </si>
+  <si>
+    <t>GBP 5,20</t>
+  </si>
+  <si>
+    <t>GBP 4,75</t>
+  </si>
+  <si>
+    <t>GBP 4,50</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>DIRECT</t>
+  </si>
+  <si>
+    <t>GBP 110</t>
+  </si>
+  <si>
+    <t>GBP 4,20</t>
+  </si>
+  <si>
+    <t>GBP 2,30</t>
+  </si>
+  <si>
+    <t>GBP 3,90</t>
+  </si>
+  <si>
+    <t>GBP 3,55</t>
+  </si>
+  <si>
+    <t>GBP 3,25</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>GBP 125</t>
+  </si>
+  <si>
+    <t>GBP 4,65</t>
+  </si>
+  <si>
+    <t>GBP 3,45</t>
+  </si>
+  <si>
+    <t>GBP 3,15</t>
   </si>
   <si>
     <t>AF</t>
   </si>
   <si>
-    <t>40 hours</t>
+    <t>AMS</t>
   </si>
   <si>
-    <t>via CDG</t>
+    <t>GBP 155</t>
   </si>
   <si>
-    <t>KLM</t>
+    <t>MERIDIAN</t>
   </si>
   <si>
-    <t>38 hours</t>
+    <t>GBP 120</t>
   </si>
   <si>
-    <t>via AMS</t>
+    <t>PEK</t>
   </si>
   <si>
-    <t>EUR 6,30</t>
+    <t>USD 7</t>
   </si>
   <si>
-    <t>IB</t>
+    <t>USD 6,86</t>
   </si>
   <si>
-    <t>35 hours</t>
-  </si>
-  <si>
-    <t>via MAD</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>36 hours</t>
-  </si>
-  <si>
-    <t>via LHR</t>
-  </si>
-  <si>
-    <t>EUR 4,50</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>70 hours</t>
-  </si>
-  <si>
-    <t>via ATL</t>
-  </si>
-  <si>
-    <t>EUR 4,75</t>
+    <t>USD 6,72</t>
   </si>
   <si>
     <t>UA</t>
   </si>
   <si>
-    <t>via IAH</t>
+    <t>D13</t>
   </si>
   <si>
-    <t>EUR 4,80</t>
+    <t>4-6DAYS</t>
   </si>
   <si>
-    <t>AC</t>
+    <t>PEK-SFO-IAH-SCL</t>
   </si>
   <si>
-    <t>via YYZ</t>
+    <t>MEX</t>
   </si>
   <si>
-    <t>EUR 4,14</t>
+    <t>USD 4,63</t>
   </si>
   <si>
-    <t>MONDAY</t>
+    <t>USD 4,49</t>
   </si>
   <si>
-    <t>TRANSWAY</t>
+    <t>USD 4,27</t>
+  </si>
+  <si>
+    <t>USD 4,20</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>DAILY</t>
+  </si>
+  <si>
+    <t>1-2DAYS</t>
+  </si>
+  <si>
+    <t>PEK-(TIJ)-MEX</t>
+  </si>
+  <si>
+    <t>UIO</t>
+  </si>
+  <si>
+    <t>USD 7,52</t>
+  </si>
+  <si>
+    <t>USD 7,38</t>
+  </si>
+  <si>
+    <t>USD 7,16</t>
+  </si>
+  <si>
+    <t>USD 7,09</t>
+  </si>
+  <si>
+    <t>NH-AA</t>
+  </si>
+  <si>
+    <t>8-12DAYS</t>
+  </si>
+  <si>
+    <t>PEK-HND-LAX-DFW-MIA-UIO</t>
+  </si>
+  <si>
+    <t>GYE</t>
+  </si>
+  <si>
+    <t>USD 7,8</t>
+  </si>
+  <si>
+    <t>USD 7,66</t>
+  </si>
+  <si>
+    <t>USD 7,45</t>
+  </si>
+  <si>
+    <t>PEK-HND-LAX-DFW-MIA-GYE</t>
+  </si>
+  <si>
+    <t>EZE</t>
+  </si>
+  <si>
+    <t>USD 6,24</t>
+  </si>
+  <si>
+    <t>USD 6,10</t>
+  </si>
+  <si>
+    <t>USD 5,89</t>
+  </si>
+  <si>
+    <t>USD 5,82</t>
+  </si>
+  <si>
+    <t>PEK-HND-LAX-DFW-MIA-EZE</t>
+  </si>
+  <si>
+    <t>USD 7,23</t>
+  </si>
+  <si>
+    <t>USD 7,02</t>
+  </si>
+  <si>
+    <t>USD 6,95</t>
+  </si>
+  <si>
+    <t>PEK-HND-LAX-DFW-MIA-BOG</t>
+  </si>
+  <si>
+    <t>USD 8,14</t>
+  </si>
+  <si>
+    <t>USD 7,86</t>
+  </si>
+  <si>
+    <t>USD 7,64</t>
+  </si>
+  <si>
+    <t>USD 7,43</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>4-7DAYS</t>
+  </si>
+  <si>
+    <t>PEK-IST-BOG</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>PEK-HND-LAX-DFW-MIA-LIM</t>
   </si>
   <si>
     <t>PVG</t>
   </si>
   <si>
-    <t>USD 14,29</t>
+    <t>USD 14.29</t>
   </si>
   <si>
-    <t>USD 11,13</t>
+    <t>USD 7.93</t>
   </si>
   <si>
-    <t>USD 10,99</t>
+    <t>USD 7.79</t>
   </si>
   <si>
-    <t>USD 10,57</t>
+    <t>USD 7.36</t>
   </si>
   <si>
-    <t>USD 10,43</t>
+    <t>USD 7.21</t>
   </si>
   <si>
     <t>ET-XMN</t>
@@ -181,76 +352,77 @@
     <t>TUE</t>
   </si>
   <si>
-    <t>2–3 días</t>
+    <t>2-3</t>
   </si>
   <si>
     <t>EHU/XMN-ADD-LOS-SCL</t>
   </si>
   <si>
-    <t>DT</t>
+    <t>USD 13.57</t>
   </si>
   <si>
-    <t>USD 13,57</t>
+    <t>USD 6.14</t>
   </si>
   <si>
-    <t>USD 7,38</t>
-  </si>
-  <si>
-    <t>USD 7,23</t>
+    <t>USD 6.00</t>
   </si>
   <si>
     <t>AA /DL/PO</t>
   </si>
   <si>
-    <t>DAILY</t>
+    <t>10-12</t>
   </si>
   <si>
-    <t>10–12 días</t>
-  </si>
-  <si>
-    <t>AA :PVG-NRT-DFW-SCL</t>
+    <t>AA :PVG-NRT-DFW-SCL
+ DL:PVG-ICN-SEA/DTW-ATL-SCL</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>USD 08,09</t>
+    <t>USD 6.86</t>
   </si>
   <si>
-    <t>UC</t>
+    <t>USD 6.57</t>
   </si>
   <si>
-    <t>8–9 días</t>
+    <t>CK</t>
   </si>
   <si>
-    <t>PVG-AKL / SYD – SCL</t>
+    <t>D1/3/6</t>
   </si>
   <si>
-    <t>MEX</t>
+    <t>8-9</t>
   </si>
   <si>
-    <t>USD 32,39</t>
+    <t>PVG-LAX-SCL</t>
   </si>
   <si>
-    <t>USD 9,93</t>
+    <t>USD 32.39</t>
   </si>
   <si>
-    <t>USD 9,79</t>
+    <t>USD 8.43</t>
   </si>
   <si>
-    <t>USD 9,65</t>
+    <t>USD 8.29</t>
   </si>
   <si>
-    <t>TK</t>
+    <t>USD 8.00</t>
   </si>
   <si>
-    <t>5–7 días</t>
+    <t>USD 7.86</t>
+  </si>
+  <si>
+    <t>5-7</t>
   </si>
   <si>
     <t>PVG-IST-MEX</t>
   </si>
   <si>
-    <t>USD 8,94</t>
+    <t>USD 6.43</t>
+  </si>
+  <si>
+    <t>USD 6.29</t>
   </si>
   <si>
     <t>NH</t>
@@ -259,19 +431,19 @@
     <t>D1/3/5/7</t>
   </si>
   <si>
-    <t>2 días</t>
-  </si>
-  <si>
     <t>PVG-NRT-MEX</t>
   </si>
   <si>
-    <t>GYE</t>
+    <t>USD 5.29</t>
   </si>
   <si>
-    <t>USD 8,51</t>
+    <t>CZ</t>
   </si>
   <si>
-    <t>USD 8,37</t>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>PVG-NLU-MEX</t>
   </si>
   <si>
     <t>AA</t>
@@ -280,226 +452,56 @@
     <t>PVG-NRT-DFW-GYE</t>
   </si>
   <si>
-    <t>UIO</t>
+    <t>USD 12.15</t>
   </si>
   <si>
-    <t>USD 12,15</t>
+    <t>USD 5.71</t>
   </si>
   <si>
     <t>PVG-SEA/DTW-ATL-UIO</t>
   </si>
   <si>
-    <t>LIM</t>
-  </si>
-  <si>
     <t>PVG-SEA/DTW-ATL-LIM</t>
-  </si>
-  <si>
-    <t>BOG</t>
   </si>
   <si>
     <t>PVG-SEA/DTW-ATL-BOG</t>
   </si>
   <si>
-    <t>EZE</t>
-  </si>
-  <si>
-    <t>USD 7,66</t>
-  </si>
-  <si>
     <t>AA /DL/QT/UC</t>
   </si>
   <si>
-    <t>AA:PVG-LAX-MIA-EZE</t>
+    <t>AA:PVG-LAX-MIA-EZE
+ DL:PVG-SEA/DTW-ATL-EZE</t>
   </si>
   <si>
-    <t>USD 11,35</t>
+    <t>USD 8.71</t>
   </si>
   <si>
-    <t>USD 11,21</t>
+    <t>USD 8.57</t>
   </si>
   <si>
-    <t>USD 11,06</t>
+    <t>USD 8.14</t>
   </si>
   <si>
     <t>PVG-IST-EZE</t>
   </si>
   <si>
-    <t>VCP</t>
+    <t>MU</t>
   </si>
   <si>
-    <t>USD 0,45</t>
+    <t>D/4</t>
   </si>
   <si>
-    <t>CRAFT</t>
+    <t>FRA</t>
   </si>
   <si>
-    <t>VIE-SAB-LUN</t>
+    <t>EUR 4,20</t>
   </si>
   <si>
-    <t>USD 60</t>
+    <t>TRANSWAY</t>
   </si>
   <si>
-    <t>GRU</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>USD 6,30</t>
-  </si>
-  <si>
-    <t>DOMINGOS</t>
-  </si>
-  <si>
-    <t>10–14 días</t>
-  </si>
-  <si>
-    <t>PVG-LAX(ORD)-MIA-SCL</t>
-  </si>
-  <si>
-    <t>USD 150</t>
-  </si>
-  <si>
-    <t>NKG</t>
-  </si>
-  <si>
-    <t>MARTES</t>
-  </si>
-  <si>
-    <t>8–10 días</t>
-  </si>
-  <si>
-    <t>NKG-SYD-SCL(NKG)</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>USD 6,60</t>
-  </si>
-  <si>
-    <t>DOMINGOS O MARTES</t>
-  </si>
-  <si>
-    <t>7–10 días</t>
-  </si>
-  <si>
-    <t>HKG-AKL-SCL</t>
-  </si>
-  <si>
-    <t>USD 6,80</t>
-  </si>
-  <si>
-    <t>MXP</t>
-  </si>
-  <si>
-    <t>EUR 3,20</t>
-  </si>
-  <si>
-    <t>VIERNES</t>
-  </si>
-  <si>
-    <t>MXP-GRU-SCL</t>
-  </si>
-  <si>
-    <t>EUR 40</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>EUR 4,95</t>
-  </si>
-  <si>
-    <t>SABADO</t>
-  </si>
-  <si>
-    <t>3–6 días</t>
-  </si>
-  <si>
-    <t>DIRECTO</t>
-  </si>
-  <si>
-    <t>EUR 45</t>
-  </si>
-  <si>
-    <t>EUR 3,10</t>
-  </si>
-  <si>
-    <t>LUNES</t>
-  </si>
-  <si>
-    <t>MAD-EZE-SCL</t>
-  </si>
-  <si>
-    <t>JUEVES</t>
-  </si>
-  <si>
-    <t>FRA-MAD-BOG-SCL</t>
-  </si>
-  <si>
-    <t>LHR</t>
-  </si>
-  <si>
-    <t>GBP 3</t>
-  </si>
-  <si>
-    <t>GBP 45</t>
-  </si>
-  <si>
-    <t>USD 0,95</t>
-  </si>
-  <si>
-    <t>USD 45</t>
-  </si>
-  <si>
-    <t>USD 1,55</t>
-  </si>
-  <si>
-    <t>USD 0,85</t>
-  </si>
-  <si>
-    <t>USD 90</t>
-  </si>
-  <si>
-    <t>MVD</t>
-  </si>
-  <si>
-    <t>USD 3,15</t>
-  </si>
-  <si>
-    <t>USD 85</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>USD 2,80</t>
-  </si>
-  <si>
-    <t>SEMANALES</t>
-  </si>
-  <si>
-    <t>USD 30</t>
-  </si>
-  <si>
-    <t>DOMINGO</t>
-  </si>
-  <si>
-    <t>USD 2,85</t>
-  </si>
-  <si>
-    <t>USD 2,90</t>
-  </si>
-  <si>
-    <t>GLE</t>
-  </si>
-  <si>
-    <t>USD 245</t>
-  </si>
-  <si>
-    <t>USD 2,75</t>
+    <t>MONDAY</t>
   </si>
 </sst>
 </file>
@@ -532,14 +534,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
@@ -551,7 +547,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -643,62 +645,62 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -707,7 +709,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,20 +1021,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="29" width="21.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="30" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="27" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="28" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1095,10 +1097,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1116,110 +1118,118 @@
       <c r="H3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="13"/>
+      <c r="K5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>27</v>
@@ -1230,1451 +1240,1473 @@
       <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>14</v>
+      <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>14</v>
+      <c r="B13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>14</v>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>70</v>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="13"/>
+      <c r="J15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>70</v>
+      <c r="B16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="13"/>
+      <c r="L16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>83</v>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>88</v>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>91</v>
+      <c r="B19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>109</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="37.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>93</v>
+      <c r="B20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>116</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>95</v>
+      <c r="B21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>122</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>95</v>
+      <c r="B22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="15" t="s">
+      <c r="J22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="13">
+        <v>2</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M22" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="37.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="C29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="C30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="21" t="s">
+      <c r="E31" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="21" t="s">
+      <c r="F31" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="10"/>
+      <c r="B33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1" t="s">
-        <v>143</v>
+      <c r="N33" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>105</v>
+      <c r="B34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1" t="s">
-        <v>145</v>
+      <c r="N34" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="1" t="s">
-        <v>145</v>
+      <c r="B35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="1" t="s">
-        <v>148</v>
+      <c r="B36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="1" t="s">
-        <v>148</v>
+      <c r="B37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="1" t="s">
-        <v>151</v>
+      <c r="B38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
       <c r="A39" s="1"/>
-      <c r="B39" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="1" t="s">
-        <v>155</v>
+      <c r="B39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="25"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="1" t="s">
-        <v>155</v>
+      <c r="B40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="1" t="s">
-        <v>155</v>
+      <c r="B41" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="1" t="s">
-        <v>160</v>
+      <c r="B42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="1" t="s">
-        <v>160</v>
+      <c r="B43" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
       <c r="A44" s="1"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
       <c r="N44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
       <c r="N45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">

--- a/public/assets/AÉREO.xlsx
+++ b/public/assets/AÉREO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
   <si>
     <t>Origin</t>
   </si>
@@ -55,19 +55,16 @@
     <t>Remark 2</t>
   </si>
   <si>
-    <t>MIA</t>
+    <t>Miami (Miami International)</t>
   </si>
   <si>
-    <t>SCL</t>
+    <t>Santiago de Chile (Arturo Merino Benítez)</t>
   </si>
   <si>
     <t>USD 2,80</t>
   </si>
   <si>
     <t>ATLAS</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>USD 200</t>
@@ -91,7 +88,7 @@
     <t>VIERNES</t>
   </si>
   <si>
-    <t>LHR</t>
+    <t>Londres (Heathrow)</t>
   </si>
   <si>
     <t>GBP 2,90</t>
@@ -181,7 +178,7 @@
     <t>GBP 120</t>
   </si>
   <si>
-    <t>PEK</t>
+    <t>Pekín (Capital)</t>
   </si>
   <si>
     <t>USD 7</t>
@@ -205,7 +202,7 @@
     <t>PEK-SFO-IAH-SCL</t>
   </si>
   <si>
-    <t>MEX</t>
+    <t>Ciudad de México (Benito Juárez)</t>
   </si>
   <si>
     <t>USD 4,63</t>
@@ -232,7 +229,7 @@
     <t>PEK-(TIJ)-MEX</t>
   </si>
   <si>
-    <t>UIO</t>
+    <t>Quito (Mariscal Sucre)</t>
   </si>
   <si>
     <t>USD 7,52</t>
@@ -256,7 +253,7 @@
     <t>PEK-HND-LAX-DFW-MIA-UIO</t>
   </si>
   <si>
-    <t>GYE</t>
+    <t>Guayaquil (José Joaquín de Olmedo)</t>
   </si>
   <si>
     <t>USD 7,8</t>
@@ -271,7 +268,7 @@
     <t>PEK-HND-LAX-DFW-MIA-GYE</t>
   </si>
   <si>
-    <t>EZE</t>
+    <t>Buenos Aires (Ezeiza)</t>
   </si>
   <si>
     <t>USD 6,24</t>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>PEK-HND-LAX-DFW-MIA-EZE</t>
+  </si>
+  <si>
+    <t>Bogotá (El Dorado)</t>
   </si>
   <si>
     <t>USD 7,23</t>
@@ -322,13 +322,13 @@
     <t>PEK-IST-BOG</t>
   </si>
   <si>
-    <t>LIM</t>
+    <t>Lima (Jorge Chávez)</t>
   </si>
   <si>
     <t>PEK-HND-LAX-DFW-MIA-LIM</t>
   </si>
   <si>
-    <t>PVG</t>
+    <t>Shanghái (Pudong)</t>
   </si>
   <si>
     <t>USD 14.29</t>
@@ -492,7 +492,7 @@
     <t>D/4</t>
   </si>
   <si>
-    <t>FRA</t>
+    <t>Fráncfort (Frankfurt am Main)</t>
   </si>
   <si>
     <t>EUR 4,20</t>
@@ -511,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-m"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,12 +548,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -619,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -645,40 +639,28 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -686,12 +668,6 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1021,20 +997,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="29" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="28" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="24" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="22" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1122,17 +1098,11 @@
         <v>16</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -1144,35 +1114,29 @@
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -1184,452 +1148,414 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>91</v>
@@ -1641,29 +1567,27 @@
         <v>93</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>95</v>
@@ -1684,32 +1608,30 @@
         <v>99</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>100</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>91</v>
@@ -1721,20 +1643,18 @@
         <v>93</v>
       </c>
       <c r="I18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -1766,18 +1686,16 @@
       <c r="J19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="11" t="s">
         <v>112</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="73.5">
       <c r="A20" s="1"/>
       <c r="B20" s="9" t="s">
         <v>104</v>
@@ -1804,17 +1722,15 @@
         <v>117</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -1846,15 +1762,13 @@
       <c r="J21" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="11" t="s">
         <v>125</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -1863,7 +1777,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>127</v>
@@ -1884,17 +1798,15 @@
         <v>99</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>132</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -1903,7 +1815,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>120</v>
@@ -1926,16 +1838,14 @@
       <c r="J23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <v>2</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>138</v>
       </c>
       <c r="M23" s="9"/>
-      <c r="N23" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N23" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
@@ -1943,7 +1853,7 @@
         <v>104</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>120</v>
@@ -1966,16 +1876,14 @@
       <c r="J24" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="11" t="s">
         <v>141</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>142</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N24" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
@@ -1983,7 +1891,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>120</v>
@@ -2004,18 +1912,16 @@
         <v>143</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>125</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>144</v>
       </c>
       <c r="M25" s="9"/>
-      <c r="N25" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
@@ -2023,7 +1929,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>145</v>
@@ -2041,21 +1947,19 @@
         <v>146</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>125</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>147</v>
       </c>
       <c r="M26" s="9"/>
-      <c r="N26" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N26" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
@@ -2081,21 +1985,19 @@
         <v>116</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="11" t="s">
         <v>125</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>148</v>
       </c>
       <c r="M27" s="9"/>
-      <c r="N27" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N27" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
@@ -2103,7 +2005,7 @@
         <v>104</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>145</v>
@@ -2121,21 +2023,19 @@
         <v>116</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>125</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>149</v>
       </c>
       <c r="M28" s="9"/>
-      <c r="N28" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N28" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="37.5">
       <c r="A29" s="1"/>
@@ -2143,7 +2043,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>145</v>
@@ -2164,18 +2064,16 @@
         <v>150</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="12" t="s">
         <v>151</v>
       </c>
       <c r="M29" s="9"/>
-      <c r="N29" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N29" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
@@ -2183,7 +2081,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>127</v>
@@ -2204,18 +2102,16 @@
         <v>99</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>132</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>155</v>
       </c>
       <c r="M30" s="9"/>
-      <c r="N30" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N30" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
@@ -2223,7 +2119,7 @@
         <v>104</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>120</v>
@@ -2246,16 +2142,14 @@
       <c r="J31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <v>1</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31" s="9"/>
-      <c r="N31" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N31" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
       <c r="A32" s="1"/>
@@ -2286,427 +2180,217 @@
       <c r="J32" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="N32" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="N33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="N34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
       <c r="A39" s="1"/>
-      <c r="B39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
       <c r="A44" s="1"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">

--- a/public/assets/AÉREO.xlsx
+++ b/public/assets/AÉREO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="161">
   <si>
     <t>Origin</t>
   </si>
@@ -377,9 +377,6 @@
  DL:PVG-ICN-SEA/DTW-ATL-SCL</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>USD 6.86</t>
   </si>
   <si>
@@ -511,7 +508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-m"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,12 +527,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -613,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -639,37 +630,28 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -997,20 +979,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="24" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="22" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="21" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1073,1117 +1055,1117 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="9" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="9" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="9" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="73.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="11" t="s">
+      <c r="L22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="11">
-        <v>2</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="K27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="K28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="37.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="9" t="s">
+      <c r="E31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" s="11">
+      <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="J32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
       <c r="A33" s="1"/>
@@ -2194,10 +2176,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="15"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
@@ -2219,178 +2201,178 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
       <c r="N35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
       <c r="N36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
       <c r="N37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
       <c r="N38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
       <c r="A39" s="1"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
       <c r="N39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
       <c r="N40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
       <c r="N41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
       <c r="N42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
       <c r="N43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
       <c r="A44" s="1"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
       <c r="N44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
       <c r="N45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
